--- a/kargar/DA- RCM -.xlsx
+++ b/kargar/DA- RCM -.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.tavana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس کارگر\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD1A193-4B2F-4BE4-A875-95C9058CD6FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="710DA1" sheetId="4" r:id="rId1"/>
-    <sheet name="710DA2" sheetId="40" r:id="rId2"/>
-    <sheet name="710DA3" sheetId="41" r:id="rId3"/>
-    <sheet name="710DA4" sheetId="42" r:id="rId4"/>
-    <sheet name="710DA5" sheetId="43" r:id="rId5"/>
-    <sheet name="710DA6" sheetId="44" r:id="rId6"/>
-    <sheet name="710DA7" sheetId="45" r:id="rId7"/>
-    <sheet name="730DA1" sheetId="46" r:id="rId8"/>
-    <sheet name="730DA2" sheetId="47" r:id="rId9"/>
-    <sheet name="730DA3" sheetId="48" r:id="rId10"/>
-    <sheet name="730DA4" sheetId="50" r:id="rId11"/>
+    <sheet name="0710DA01" sheetId="4" r:id="rId1"/>
+    <sheet name="0710DA02" sheetId="40" r:id="rId2"/>
+    <sheet name="0710DA03" sheetId="41" r:id="rId3"/>
+    <sheet name="0710DA04" sheetId="42" r:id="rId4"/>
+    <sheet name="0710DA05" sheetId="43" r:id="rId5"/>
+    <sheet name="0710DA06" sheetId="44" r:id="rId6"/>
+    <sheet name="0710DA07" sheetId="45" r:id="rId7"/>
+    <sheet name="0730DA01" sheetId="46" r:id="rId8"/>
+    <sheet name="0730DA02" sheetId="47" r:id="rId9"/>
+    <sheet name="0730DA03" sheetId="48" r:id="rId10"/>
+    <sheet name="0730DA04" sheetId="50" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -952,19 +951,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -972,7 +971,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -980,7 +979,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -989,7 +988,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -997,7 +996,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1005,13 +1004,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1025,7 +1024,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1052,7 +1051,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1060,7 +1059,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1068,7 +1067,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1076,7 +1075,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1219,7 +1218,7 @@
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{93554016-1BD8-485F-9675-40F93FE85F21}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1496,30 +1495,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1590,7 +1589,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1634,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1679,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1725,7 +1724,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -1772,7 +1771,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1816,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1862,7 +1861,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -1909,7 +1908,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -1956,7 +1955,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -2003,7 +2002,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -2050,7 +2049,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>14</v>
@@ -2097,7 +2096,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
@@ -2144,7 +2143,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -2191,7 +2190,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -2238,7 +2237,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2283,7 +2282,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2328,7 +2327,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
@@ -2373,7 +2372,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>14</v>
@@ -2420,7 +2419,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>14</v>
@@ -2467,7 +2466,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
@@ -2512,7 +2511,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -2557,7 +2556,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
@@ -2607,30 +2606,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025833C6-C964-4A80-8A10-160B91DE9E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>256</v>
       </c>
@@ -2701,7 +2700,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>256</v>
       </c>
@@ -2746,7 +2745,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>256</v>
       </c>
@@ -2791,7 +2790,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>256</v>
       </c>
@@ -2836,7 +2835,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>256</v>
@@ -2883,7 +2882,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>256</v>
       </c>
@@ -2928,7 +2927,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>256</v>
       </c>
@@ -2973,7 +2972,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>256</v>
@@ -3020,7 +3019,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>256</v>
@@ -3067,7 +3066,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>256</v>
@@ -3114,7 +3113,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>256</v>
@@ -3161,7 +3160,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>256</v>
@@ -3208,7 +3207,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>256</v>
@@ -3255,7 +3254,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>256</v>
@@ -3302,7 +3301,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>256</v>
@@ -3349,7 +3348,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>256</v>
       </c>
@@ -3394,7 +3393,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>256</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>256</v>
       </c>
@@ -3484,7 +3483,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>256</v>
@@ -3531,7 +3530,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>256</v>
@@ -3578,7 +3577,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>256</v>
       </c>
@@ -3623,7 +3622,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>256</v>
       </c>
@@ -3668,7 +3667,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>256</v>
       </c>
@@ -3717,30 +3716,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19243516-7507-4FEC-BE5C-EF05106158D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>280</v>
       </c>
@@ -3811,7 +3810,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>280</v>
       </c>
@@ -3856,7 +3855,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>280</v>
       </c>
@@ -3901,7 +3900,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>280</v>
       </c>
@@ -3946,7 +3945,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>280</v>
@@ -3993,7 +3992,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>280</v>
       </c>
@@ -4038,7 +4037,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>280</v>
       </c>
@@ -4083,7 +4082,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>280</v>
@@ -4130,7 +4129,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>280</v>
@@ -4177,7 +4176,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>280</v>
@@ -4224,7 +4223,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>280</v>
@@ -4271,7 +4270,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>280</v>
@@ -4318,7 +4317,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>280</v>
@@ -4365,7 +4364,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>280</v>
@@ -4412,7 +4411,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>280</v>
@@ -4459,7 +4458,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>280</v>
       </c>
@@ -4504,7 +4503,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>280</v>
       </c>
@@ -4549,7 +4548,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>280</v>
       </c>
@@ -4594,7 +4593,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>280</v>
@@ -4641,7 +4640,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>280</v>
@@ -4688,7 +4687,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>280</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>280</v>
       </c>
@@ -4778,7 +4777,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>280</v>
       </c>
@@ -4827,30 +4826,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CDDF43-FDE9-4DA0-B628-AF45356DEE93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -4921,7 +4920,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -4966,7 +4965,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
@@ -5011,7 +5010,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
@@ -5056,7 +5055,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>57</v>
@@ -5103,7 +5102,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
@@ -5148,7 +5147,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
@@ -5193,7 +5192,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>57</v>
@@ -5240,7 +5239,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>57</v>
@@ -5287,7 +5286,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>57</v>
@@ -5334,7 +5333,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>57</v>
@@ -5381,7 +5380,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>57</v>
@@ -5428,7 +5427,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>57</v>
@@ -5475,7 +5474,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>57</v>
@@ -5522,7 +5521,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>57</v>
@@ -5569,7 +5568,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
@@ -5614,7 +5613,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
@@ -5659,7 +5658,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>57</v>
       </c>
@@ -5704,7 +5703,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>57</v>
@@ -5751,7 +5750,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>57</v>
@@ -5798,7 +5797,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>57</v>
       </c>
@@ -5843,7 +5842,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
@@ -5888,7 +5887,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
@@ -5937,30 +5936,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992DFFC6-A44A-4641-AE1A-F29BD7C6BC5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>82</v>
       </c>
@@ -6031,7 +6030,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
@@ -6076,7 +6075,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>82</v>
       </c>
@@ -6121,7 +6120,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -6166,7 +6165,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>82</v>
@@ -6213,7 +6212,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>82</v>
       </c>
@@ -6258,7 +6257,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
@@ -6303,7 +6302,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>82</v>
@@ -6350,7 +6349,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>82</v>
@@ -6397,7 +6396,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>82</v>
@@ -6444,7 +6443,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>82</v>
@@ -6491,7 +6490,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>82</v>
@@ -6538,7 +6537,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>82</v>
@@ -6585,7 +6584,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>82</v>
@@ -6632,7 +6631,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>82</v>
@@ -6679,7 +6678,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>82</v>
       </c>
@@ -6724,7 +6723,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
@@ -6769,7 +6768,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>82</v>
       </c>
@@ -6814,7 +6813,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>82</v>
@@ -6861,7 +6860,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>82</v>
@@ -6908,7 +6907,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>82</v>
       </c>
@@ -6953,7 +6952,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
@@ -6998,7 +6997,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>82</v>
       </c>
@@ -7047,30 +7046,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF89A5D-230B-48CE-8F3E-764628C97B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>106</v>
       </c>
@@ -7141,7 +7140,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>106</v>
       </c>
@@ -7186,7 +7185,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>106</v>
       </c>
@@ -7231,7 +7230,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>106</v>
       </c>
@@ -7276,7 +7275,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>106</v>
@@ -7323,7 +7322,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -7368,7 +7367,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
@@ -7413,7 +7412,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>106</v>
@@ -7460,7 +7459,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>106</v>
@@ -7507,7 +7506,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>106</v>
@@ -7554,7 +7553,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>106</v>
@@ -7601,7 +7600,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>106</v>
@@ -7648,7 +7647,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>106</v>
@@ -7695,7 +7694,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>106</v>
@@ -7742,7 +7741,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>106</v>
@@ -7789,7 +7788,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>106</v>
       </c>
@@ -7834,7 +7833,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>106</v>
       </c>
@@ -7879,7 +7878,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>106</v>
       </c>
@@ -7924,7 +7923,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>106</v>
@@ -7971,7 +7970,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>106</v>
@@ -8018,7 +8017,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>106</v>
       </c>
@@ -8063,7 +8062,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>106</v>
       </c>
@@ -8108,7 +8107,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>106</v>
       </c>
@@ -8157,30 +8156,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D1D1AB-D537-4837-A2C3-B5FD640197EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
@@ -8251,7 +8250,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>130</v>
       </c>
@@ -8296,7 +8295,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>130</v>
       </c>
@@ -8341,7 +8340,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>130</v>
       </c>
@@ -8386,7 +8385,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>130</v>
@@ -8433,7 +8432,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>130</v>
       </c>
@@ -8478,7 +8477,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>130</v>
       </c>
@@ -8523,7 +8522,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>130</v>
@@ -8570,7 +8569,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>130</v>
@@ -8617,7 +8616,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>130</v>
@@ -8664,7 +8663,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>130</v>
@@ -8711,7 +8710,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>130</v>
@@ -8758,7 +8757,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>130</v>
@@ -8805,7 +8804,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>130</v>
@@ -8852,7 +8851,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>130</v>
@@ -8899,7 +8898,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>130</v>
       </c>
@@ -8944,7 +8943,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>130</v>
       </c>
@@ -8989,7 +8988,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>130</v>
       </c>
@@ -9034,7 +9033,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>130</v>
@@ -9081,7 +9080,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>130</v>
@@ -9128,7 +9127,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>130</v>
       </c>
@@ -9173,7 +9172,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>130</v>
       </c>
@@ -9218,7 +9217,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>130</v>
       </c>
@@ -9267,30 +9266,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195BA4DD-2E73-4AFC-8BAD-57853CBFE240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>154</v>
       </c>
@@ -9361,7 +9360,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>154</v>
       </c>
@@ -9406,7 +9405,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>154</v>
       </c>
@@ -9451,7 +9450,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>154</v>
       </c>
@@ -9496,7 +9495,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>154</v>
@@ -9543,7 +9542,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>154</v>
       </c>
@@ -9588,7 +9587,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>154</v>
       </c>
@@ -9633,7 +9632,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>154</v>
@@ -9680,7 +9679,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>154</v>
@@ -9727,7 +9726,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>154</v>
@@ -9774,7 +9773,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>154</v>
@@ -9821,7 +9820,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>154</v>
@@ -9868,7 +9867,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>154</v>
@@ -9915,7 +9914,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>154</v>
@@ -9962,7 +9961,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>154</v>
@@ -10009,7 +10008,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>154</v>
       </c>
@@ -10054,7 +10053,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>154</v>
       </c>
@@ -10099,7 +10098,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>154</v>
       </c>
@@ -10144,7 +10143,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>154</v>
@@ -10191,7 +10190,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>154</v>
@@ -10238,7 +10237,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -10283,7 +10282,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>154</v>
       </c>
@@ -10328,7 +10327,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>154</v>
       </c>
@@ -10377,30 +10376,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E235417-FC33-46AA-9CF0-AF4759A3371D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>178</v>
       </c>
@@ -10471,7 +10470,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>178</v>
       </c>
@@ -10516,7 +10515,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>178</v>
       </c>
@@ -10561,7 +10560,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>178</v>
       </c>
@@ -10606,7 +10605,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>178</v>
@@ -10653,7 +10652,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B7" s="4" t="s">
         <v>178</v>
       </c>
@@ -10698,7 +10697,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B8" s="5" t="s">
         <v>178</v>
       </c>
@@ -10743,7 +10742,7 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>178</v>
@@ -10790,7 +10789,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>178</v>
@@ -10837,7 +10836,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>178</v>
@@ -10884,7 +10883,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>178</v>
@@ -10931,7 +10930,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>178</v>
@@ -10978,7 +10977,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>178</v>
@@ -11025,7 +11024,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>178</v>
@@ -11072,7 +11071,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>178</v>
@@ -11119,7 +11118,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B17" s="4" t="s">
         <v>178</v>
       </c>
@@ -11164,7 +11163,7 @@
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>178</v>
       </c>
@@ -11209,7 +11208,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B19" s="5" t="s">
         <v>178</v>
       </c>
@@ -11254,7 +11253,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>178</v>
@@ -11301,7 +11300,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>178</v>
@@ -11348,7 +11347,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B22" s="4" t="s">
         <v>178</v>
       </c>
@@ -11393,7 +11392,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
     </row>
-    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B23" s="5" t="s">
         <v>178</v>
       </c>
@@ -11438,7 +11437,7 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B24" s="5" t="s">
         <v>178</v>
       </c>
@@ -11487,30 +11486,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C41E15-9D62-4F2C-9391-2946F5586D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>202</v>
       </c>
@@ -11581,7 +11580,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>202</v>
       </c>
@@ -11626,7 +11625,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>202</v>
       </c>
@@ -11671,7 +11670,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>202</v>
       </c>
@@ -11716,7 +11715,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>202</v>
@@ -11763,7 +11762,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>202</v>
@@ -11810,7 +11809,7 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>202</v>
@@ -11857,7 +11856,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
     </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B9" s="4" t="s">
         <v>202</v>
       </c>
@@ -11902,7 +11901,7 @@
       <c r="AF9" s="17"/>
       <c r="AG9" s="17"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B10" s="5" t="s">
         <v>202</v>
       </c>
@@ -11947,7 +11946,7 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>202</v>
@@ -11994,7 +11993,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>202</v>
@@ -12041,7 +12040,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>202</v>
@@ -12088,7 +12087,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>202</v>
@@ -12135,7 +12134,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>202</v>
@@ -12182,7 +12181,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>202</v>
@@ -12229,7 +12228,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>202</v>
@@ -12276,7 +12275,7 @@
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>202</v>
@@ -12323,7 +12322,7 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
     </row>
-    <row r="19" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B19" s="4" t="s">
         <v>202</v>
       </c>
@@ -12368,7 +12367,7 @@
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
     </row>
-    <row r="20" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B20" s="5" t="s">
         <v>202</v>
       </c>
@@ -12413,7 +12412,7 @@
       <c r="AF20" s="18"/>
       <c r="AG20" s="18"/>
     </row>
-    <row r="21" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B21" s="5" t="s">
         <v>202</v>
       </c>
@@ -12458,7 +12457,7 @@
       <c r="AF21" s="18"/>
       <c r="AG21" s="18"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>202</v>
@@ -12505,7 +12504,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>202</v>
@@ -12552,7 +12551,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
     </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B24" s="4" t="s">
         <v>202</v>
       </c>
@@ -12597,7 +12596,7 @@
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
     </row>
-    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B25" s="5" t="s">
         <v>202</v>
       </c>
@@ -12642,7 +12641,7 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
     </row>
-    <row r="26" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B26" s="5" t="s">
         <v>202</v>
       </c>
@@ -12691,30 +12690,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB30E63-0894-415F-881E-F64ACB13600D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -12749,7 +12748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>230</v>
       </c>
@@ -12785,7 +12784,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>230</v>
       </c>
@@ -12830,7 +12829,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>230</v>
       </c>
@@ -12875,7 +12874,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>230</v>
       </c>
@@ -12920,7 +12919,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>230</v>
@@ -12967,7 +12966,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>230</v>
@@ -13014,7 +13013,7 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>230</v>
@@ -13061,7 +13060,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
     </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B9" s="4" t="s">
         <v>230</v>
       </c>
@@ -13106,7 +13105,7 @@
       <c r="AF9" s="17"/>
       <c r="AG9" s="17"/>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B10" s="5" t="s">
         <v>230</v>
       </c>
@@ -13151,7 +13150,7 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>230</v>
@@ -13198,7 +13197,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>230</v>
@@ -13245,7 +13244,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>230</v>
@@ -13292,7 +13291,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>230</v>
@@ -13339,7 +13338,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>230</v>
@@ -13386,7 +13385,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>230</v>
@@ -13433,7 +13432,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>230</v>
@@ -13480,7 +13479,7 @@
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>230</v>
@@ -13527,7 +13526,7 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
     </row>
-    <row r="19" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B19" s="4" t="s">
         <v>230</v>
       </c>
@@ -13572,7 +13571,7 @@
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
     </row>
-    <row r="20" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B20" s="5" t="s">
         <v>230</v>
       </c>
@@ -13617,7 +13616,7 @@
       <c r="AF20" s="18"/>
       <c r="AG20" s="18"/>
     </row>
-    <row r="21" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B21" s="5" t="s">
         <v>230</v>
       </c>
@@ -13662,7 +13661,7 @@
       <c r="AF21" s="18"/>
       <c r="AG21" s="18"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>230</v>
@@ -13709,7 +13708,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>230</v>
@@ -13756,7 +13755,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
     </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B24" s="4" t="s">
         <v>230</v>
       </c>
@@ -13801,7 +13800,7 @@
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
     </row>
-    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B25" s="5" t="s">
         <v>230</v>
       </c>
@@ -13846,7 +13845,7 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
     </row>
-    <row r="26" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B26" s="5" t="s">
         <v>230</v>
       </c>
